--- a/Results/Calculation/dp-elmo.xlsx
+++ b/Results/Calculation/dp-elmo.xlsx
@@ -432,28 +432,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="G2">
+        <v>0.79</v>
+      </c>
+      <c r="H2">
+        <v>0.73</v>
+      </c>
+      <c r="I2">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="H2">
-        <v>0.72</v>
-      </c>
-      <c r="I2">
-        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>183</v>
@@ -470,7 +470,7 @@
         <v>62</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3">
         <v>0.74</v>
@@ -482,7 +482,7 @@
         <v>0.77</v>
       </c>
       <c r="I3">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="G4">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="H4">
         <v>0.77</v>
       </c>
       <c r="I4">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
